--- a/visualizations/lcoc.xlsx
+++ b/visualizations/lcoc.xlsx
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.3392588287205</v>
+        <v>37.49639437239879</v>
       </c>
       <c r="C2" t="n">
-        <v>38.65005158109153</v>
+        <v>38.83452588512732</v>
       </c>
       <c r="D2" t="n">
-        <v>35.99080443554094</v>
+        <v>36.1473706539882</v>
       </c>
       <c r="E2" t="n">
-        <v>37.34010354118269</v>
+        <v>37.49718842828696</v>
       </c>
       <c r="F2" t="n">
-        <v>37.48397884993094</v>
+        <v>37.6436862658944</v>
       </c>
       <c r="G2" t="n">
-        <v>36.82317997086182</v>
+        <v>37.59589674993376</v>
       </c>
       <c r="H2" t="n">
-        <v>40.3947435574609</v>
+        <v>40.66874165126234</v>
       </c>
       <c r="I2" t="n">
-        <v>32.97166698719965</v>
+        <v>33.25568667607293</v>
       </c>
       <c r="J2" t="n">
-        <v>37.46069308128672</v>
+        <v>37.6215591025857</v>
       </c>
       <c r="K2" t="n">
-        <v>37.25716558630328</v>
+        <v>37.39869254727004</v>
       </c>
       <c r="L2" t="n">
-        <v>37.53119374900611</v>
+        <v>37.51998534175809</v>
       </c>
       <c r="M2" t="n">
-        <v>36.66019857054809</v>
+        <v>37.60718626313837</v>
       </c>
       <c r="N2" t="n">
-        <v>17.80037014198687</v>
+        <v>20.65541710317159</v>
       </c>
       <c r="O2" t="n">
-        <v>32.20002813479491</v>
+        <v>32.8114746579641</v>
       </c>
       <c r="P2" t="n">
-        <v>41.33931103838029</v>
+        <v>41.69036952316402</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.18410808530785</v>
+        <v>34.78777010560399</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoc.xlsx
+++ b/visualizations/lcoc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.3392588287205</v>
+        <v>37.00997885040392</v>
       </c>
       <c r="C2" t="n">
-        <v>38.65005158109153</v>
+        <v>38.29388288199763</v>
       </c>
       <c r="D2" t="n">
-        <v>35.99080443554094</v>
+        <v>35.67999920255267</v>
       </c>
       <c r="E2" t="n">
-        <v>37.34010354118269</v>
+        <v>37.01077875011296</v>
       </c>
       <c r="F2" t="n">
-        <v>37.48397884993094</v>
+        <v>37.15300573523157</v>
       </c>
       <c r="G2" t="n">
-        <v>36.82317997086182</v>
+        <v>36.54477116405194</v>
       </c>
       <c r="H2" t="n">
-        <v>40.3947435574609</v>
+        <v>40.05944957231277</v>
       </c>
       <c r="I2" t="n">
-        <v>32.97166698719965</v>
+        <v>32.59176978264608</v>
       </c>
       <c r="J2" t="n">
-        <v>37.46069308128672</v>
+        <v>37.12425180097848</v>
       </c>
       <c r="K2" t="n">
-        <v>37.25716558630328</v>
+        <v>36.92397212398041</v>
       </c>
       <c r="L2" t="n">
-        <v>37.53119374900611</v>
+        <v>37.19706388087692</v>
       </c>
       <c r="M2" t="n">
-        <v>36.66019857054809</v>
+        <v>36.34222408766744</v>
       </c>
       <c r="N2" t="n">
-        <v>17.80037014198687</v>
+        <v>17.43473966858451</v>
       </c>
       <c r="O2" t="n">
-        <v>32.20002813479491</v>
+        <v>31.91991872074886</v>
       </c>
       <c r="P2" t="n">
-        <v>41.33931103838029</v>
+        <v>40.9707364202819</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.18410808530785</v>
+        <v>33.90553370188189</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoc.xlsx
+++ b/visualizations/lcoc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.49639437239879</v>
+        <v>37.15942529324055</v>
       </c>
       <c r="C2" t="n">
-        <v>38.83452588512732</v>
+        <v>38.474087974276</v>
       </c>
       <c r="D2" t="n">
-        <v>36.1473706539882</v>
+        <v>35.83432145104847</v>
       </c>
       <c r="E2" t="n">
-        <v>37.49718842828696</v>
+        <v>37.16020833104659</v>
       </c>
       <c r="F2" t="n">
-        <v>37.6436862658944</v>
+        <v>37.30451749110371</v>
       </c>
       <c r="G2" t="n">
-        <v>37.59589674993376</v>
+        <v>37.28936261909382</v>
       </c>
       <c r="H2" t="n">
-        <v>40.66874165126234</v>
+        <v>40.33496757003094</v>
       </c>
       <c r="I2" t="n">
-        <v>33.25568667607293</v>
+        <v>32.91175718211949</v>
       </c>
       <c r="J2" t="n">
-        <v>37.6215591025857</v>
+        <v>37.28202344561605</v>
       </c>
       <c r="K2" t="n">
-        <v>37.39869254727004</v>
+        <v>37.05413863822732</v>
       </c>
       <c r="L2" t="n">
-        <v>37.51998534175809</v>
+        <v>37.17916710262138</v>
       </c>
       <c r="M2" t="n">
-        <v>37.60718626313837</v>
+        <v>37.28251039841725</v>
       </c>
       <c r="N2" t="n">
-        <v>20.65541710317159</v>
+        <v>20.34401335102639</v>
       </c>
       <c r="O2" t="n">
-        <v>32.8114746579641</v>
+        <v>32.52730289766801</v>
       </c>
       <c r="P2" t="n">
-        <v>41.69036952316402</v>
+        <v>41.33733540220842</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.78777010560399</v>
+        <v>34.40099778076166</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoc.xlsx
+++ b/visualizations/lcoc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -526,10 +526,10 @@
         <v>38.29388288199763</v>
       </c>
       <c r="D2" t="n">
-        <v>35.67999920255267</v>
+        <v>35.67999920255268</v>
       </c>
       <c r="E2" t="n">
-        <v>37.01077875011296</v>
+        <v>37.01077875011297</v>
       </c>
       <c r="F2" t="n">
         <v>37.15300573523157</v>
@@ -544,7 +544,7 @@
         <v>32.59176978264608</v>
       </c>
       <c r="J2" t="n">
-        <v>37.12425180097848</v>
+        <v>37.12425180097849</v>
       </c>
       <c r="K2" t="n">
         <v>36.92397212398041</v>
@@ -559,13 +559,13 @@
         <v>17.43473966858451</v>
       </c>
       <c r="O2" t="n">
-        <v>31.91991872074886</v>
+        <v>31.0610156868254</v>
       </c>
       <c r="P2" t="n">
         <v>40.9707364202819</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.90553370188189</v>
+        <v>33.90553370188188</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoc.xlsx
+++ b/visualizations/lcoc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.15942529324055</v>
+        <v>37.16227521392502</v>
       </c>
       <c r="C2" t="n">
-        <v>38.474087974276</v>
+        <v>38.47854333669813</v>
       </c>
       <c r="D2" t="n">
-        <v>35.83432145104847</v>
+        <v>35.83546184660323</v>
       </c>
       <c r="E2" t="n">
-        <v>37.16020833104659</v>
+        <v>37.16306127174014</v>
       </c>
       <c r="F2" t="n">
-        <v>37.30451749110371</v>
+        <v>37.30754659353547</v>
       </c>
       <c r="G2" t="n">
-        <v>37.28936261909382</v>
+        <v>37.29334838229598</v>
       </c>
       <c r="H2" t="n">
-        <v>40.33496757003094</v>
+        <v>40.34216762033703</v>
       </c>
       <c r="I2" t="n">
-        <v>32.91175718211949</v>
+        <v>32.90863680846976</v>
       </c>
       <c r="J2" t="n">
-        <v>37.28202344561605</v>
+        <v>37.2851265293913</v>
       </c>
       <c r="K2" t="n">
-        <v>37.05413863822732</v>
+        <v>37.05761088918413</v>
       </c>
       <c r="L2" t="n">
-        <v>37.17916710262138</v>
+        <v>37.18212647736564</v>
       </c>
       <c r="M2" t="n">
-        <v>37.28251039841725</v>
+        <v>37.28271025744524</v>
       </c>
       <c r="N2" t="n">
-        <v>20.34401335102639</v>
+        <v>20.32451852977063</v>
       </c>
       <c r="O2" t="n">
-        <v>32.52730289766801</v>
+        <v>31.77467961976458</v>
       </c>
       <c r="P2" t="n">
-        <v>41.33733540220842</v>
+        <v>41.34592169702232</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.40099778076166</v>
+        <v>34.40499174166456</v>
       </c>
     </row>
   </sheetData>
